--- a/output/03-overall-country.xlsx
+++ b/output/03-overall-country.xlsx
@@ -10,6 +10,7 @@
     <sheet name="descriptives" sheetId="1" r:id="rId1"/>
     <sheet name="coefficients" sheetId="2" r:id="rId2"/>
     <sheet name="pairwise" sheetId="3" r:id="rId3"/>
+    <sheet name="nr_studies" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -411,22 +412,22 @@
         <v>76</v>
       </c>
       <c r="C2">
-        <v>684</v>
+        <v>787</v>
       </c>
       <c r="D2">
-        <v>0.006355259977809476</v>
+        <v>0.006950631904356579</v>
       </c>
       <c r="E2">
-        <v>0.05585540096416894</v>
+        <v>0.05229319073831001</v>
       </c>
       <c r="F2">
-        <v>97.07027339454234</v>
+        <v>97.85472485650796</v>
       </c>
       <c r="G2">
-        <v>87.15385691224962</v>
+        <v>86.37416634018692</v>
       </c>
       <c r="H2">
-        <v>9.916416482292725</v>
+        <v>11.48055851632104</v>
       </c>
     </row>
     <row r="3">
@@ -439,22 +440,22 @@
         <v>49</v>
       </c>
       <c r="C3">
-        <v>368</v>
+        <v>421</v>
       </c>
       <c r="D3">
-        <v>0.004059904336443294</v>
+        <v>0.002696208281190124</v>
       </c>
       <c r="E3">
-        <v>0.05724297381158915</v>
+        <v>0.05376558133719576</v>
       </c>
       <c r="F3">
-        <v>95.24496957972002</v>
+        <v>95.10822366055712</v>
       </c>
       <c r="G3">
-        <v>88.93718311515374</v>
+        <v>90.56654012597475</v>
       </c>
       <c r="H3">
-        <v>6.307786464566279</v>
+        <v>4.541683534582362</v>
       </c>
     </row>
   </sheetData>
@@ -539,25 +540,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.10213370345848</v>
+        <v>0.09480380187858262</v>
       </c>
       <c r="E2">
-        <v>0.02046580585883963</v>
+        <v>0.01981462143092193</v>
       </c>
       <c r="F2">
-        <v>5.007917714502097</v>
+        <v>4.798949522832739</v>
       </c>
       <c r="G2">
-        <v>1.180529105840014e-05</v>
+        <v>2.20074119876882e-05</v>
       </c>
       <c r="H2">
-        <v>0.06103915216415406</v>
+        <v>0.05499871317828864</v>
       </c>
       <c r="I2">
-        <v>0.1428825915669029</v>
+        <v>0.1343080343854703</v>
       </c>
       <c r="J2">
-        <v>39.60036028653972</v>
+        <v>40.38026157118141</v>
       </c>
     </row>
     <row r="3">
@@ -577,25 +578,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.08877916197423519</v>
+        <v>0.06675628831344069</v>
       </c>
       <c r="E3">
-        <v>0.03468675170015868</v>
+        <v>0.03003831250297576</v>
       </c>
       <c r="F3">
-        <v>2.566210775860255</v>
+        <v>2.225681572144141</v>
       </c>
       <c r="G3">
-        <v>0.03076590215044471</v>
+        <v>0.05208371956087731</v>
       </c>
       <c r="H3">
-        <v>0.01034588616631634</v>
+        <v>-0.0007413541287402573</v>
       </c>
       <c r="I3">
-        <v>0.166126701253834</v>
+        <v>0.133648414926698</v>
       </c>
       <c r="J3">
-        <v>8.852045009982859</v>
+        <v>9.320302586188001</v>
       </c>
     </row>
     <row r="4">
@@ -615,25 +616,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.2552525450174654</v>
+        <v>0.2014534170335661</v>
       </c>
       <c r="E4">
-        <v>0.06838091946591569</v>
+        <v>0.0689296459707017</v>
       </c>
       <c r="F4">
-        <v>3.817197049839773</v>
+        <v>2.963122571946534</v>
       </c>
       <c r="G4">
-        <v>0.004182182657524579</v>
+        <v>0.01571249113603998</v>
       </c>
       <c r="H4">
-        <v>0.105706576475592</v>
+        <v>0.04851152953152397</v>
       </c>
       <c r="I4">
-        <v>0.3935079224356899</v>
+        <v>0.3451650073861444</v>
       </c>
       <c r="J4">
-        <v>8.912391051527312</v>
+        <v>9.088961875362513</v>
       </c>
     </row>
     <row r="5">
@@ -653,22 +654,22 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.1019545771707396</v>
+        <v>0.09101557961143948</v>
       </c>
       <c r="E5">
-        <v>0.0482265549302283</v>
+        <v>0.05587487798336414</v>
       </c>
       <c r="F5">
-        <v>2.121446590813537</v>
+        <v>1.633438118306467</v>
       </c>
       <c r="G5">
-        <v>0.2804231857194173</v>
+        <v>0.3497244726583097</v>
       </c>
       <c r="H5">
-        <v>-0.4703085312083358</v>
+        <v>-0.5502149122376441</v>
       </c>
       <c r="I5">
-        <v>0.613856565158304</v>
+        <v>0.6647214995021303</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -691,25 +692,25 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0824059641116896</v>
+        <v>0.06938290263373881</v>
       </c>
       <c r="E6">
-        <v>0.06007960664689713</v>
+        <v>0.07201046353820569</v>
       </c>
       <c r="F6">
-        <v>1.374730378853976</v>
+        <v>0.965061993022556</v>
       </c>
       <c r="G6">
-        <v>0.4003635366304639</v>
+        <v>0.5113176494580161</v>
       </c>
       <c r="H6">
-        <v>-0.5920330773491708</v>
+        <v>-0.6887034325226536</v>
       </c>
       <c r="I6">
-        <v>0.6889619367075932</v>
+        <v>0.7549962556010068</v>
       </c>
       <c r="J6">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -729,25 +730,25 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.06323115600043956</v>
+        <v>0.05617493319933421</v>
       </c>
       <c r="E7">
-        <v>0.02092335820344608</v>
+        <v>0.01923951046584331</v>
       </c>
       <c r="F7">
-        <v>3.026073919301575</v>
+        <v>2.922846420761868</v>
       </c>
       <c r="G7">
-        <v>0.005199898001194366</v>
+        <v>0.006735869609363888</v>
       </c>
       <c r="H7">
-        <v>0.02049176114500377</v>
+        <v>0.01684833748883502</v>
       </c>
       <c r="I7">
-        <v>0.105739872236666</v>
+        <v>0.09532798985678863</v>
       </c>
       <c r="J7">
-        <v>28.57102378094132</v>
+        <v>28.41879720705413</v>
       </c>
     </row>
     <row r="8">
@@ -767,25 +768,25 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.003535988162575963</v>
+        <v>0.003328434111490566</v>
       </c>
       <c r="E8">
-        <v>0.05574759605530289</v>
+        <v>0.05613765566378266</v>
       </c>
       <c r="F8">
-        <v>0.06342879603721274</v>
+        <v>0.05929079801319181</v>
       </c>
       <c r="G8">
-        <v>0.9569637801944549</v>
+        <v>0.9599395979900474</v>
       </c>
       <c r="H8">
-        <v>-0.3299024069886556</v>
+        <v>-0.3457765397700591</v>
       </c>
       <c r="I8">
-        <v>0.336189952691903</v>
+        <v>0.3516239790544953</v>
       </c>
       <c r="J8">
-        <v>1.466803984074499</v>
+        <v>1.424607765223479</v>
       </c>
     </row>
     <row r="9">
@@ -805,25 +806,25 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.1229141977373407</v>
+        <v>0.1016071824419475</v>
       </c>
       <c r="E9">
-        <v>0.08892672566357356</v>
+        <v>0.06803836844033433</v>
       </c>
       <c r="F9">
-        <v>1.389220854460206</v>
+        <v>1.498551944941392</v>
       </c>
       <c r="G9">
-        <v>0.2162930879209432</v>
+        <v>0.1823349398077589</v>
       </c>
       <c r="H9">
-        <v>-0.09620972575018739</v>
+        <v>-0.06254580648562731</v>
       </c>
       <c r="I9">
-        <v>0.3306750207918213</v>
+        <v>0.2604076078408616</v>
       </c>
       <c r="J9">
-        <v>5.735959853059441</v>
+        <v>6.29905317958825</v>
       </c>
     </row>
     <row r="10">
@@ -843,22 +844,22 @@
         </is>
       </c>
       <c r="D10">
-        <v>-0.03978708325713566</v>
+        <v>-0.03716279722333067</v>
       </c>
       <c r="E10">
-        <v>2.376511651252376e-17</v>
+        <v>2.136512122426742e-17</v>
       </c>
       <c r="F10">
-        <v>-1675064276504039</v>
+        <v>-1740215709914876</v>
       </c>
       <c r="G10">
-        <v>3.800569215745233e-16</v>
+        <v>3.658280802434097e-16</v>
       </c>
       <c r="H10">
-        <v>-0.03978708325713597</v>
+        <v>-0.03716279722333094</v>
       </c>
       <c r="I10">
-        <v>-0.03978708325713536</v>
+        <v>-0.0371627972233304</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -881,25 +882,25 @@
         </is>
       </c>
       <c r="D11">
-        <v>-0.1167208881739297</v>
+        <v>-0.0867829520916848</v>
       </c>
       <c r="E11">
-        <v>0.00326532969774001</v>
+        <v>0.01778600421437634</v>
       </c>
       <c r="F11">
-        <v>-35.90918340013316</v>
+        <v>-4.891587964268417</v>
       </c>
       <c r="G11">
-        <v>0.01772402543638447</v>
+        <v>0.1283769302619888</v>
       </c>
       <c r="H11">
-        <v>-0.1574251127782809</v>
+        <v>-0.3031587723925541</v>
       </c>
       <c r="I11">
-        <v>-0.07562073309906236</v>
+        <v>0.1381026406794477</v>
       </c>
       <c r="J11">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -964,19 +965,19 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.3346439975246699</v>
+        <v>0.7845951929272221</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>14.17316147593598</v>
+        <v>15.37448879295304</v>
       </c>
       <c r="F2">
-        <v>0.7427944973356324</v>
+        <v>0.4446127837860866</v>
       </c>
       <c r="G2">
-        <v>0.9977606559737699</v>
+        <v>0.8892255675721732</v>
       </c>
     </row>
     <row r="3">
@@ -991,19 +992,19 @@
         </is>
       </c>
       <c r="C3">
-        <v>2.221029955487643</v>
+        <v>1.52197374291024</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>11.70141139144074</v>
+        <v>12.50958271745973</v>
       </c>
       <c r="F3">
-        <v>0.04689175503970058</v>
+        <v>0.1528851567857516</v>
       </c>
       <c r="G3">
-        <v>0.2344587751985029</v>
+        <v>0.7644257839287582</v>
       </c>
     </row>
     <row r="4">
@@ -1018,19 +1019,19 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.003455109995247421</v>
+        <v>0.06445578880778553</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1.100542818856622</v>
+        <v>1.103959442607108</v>
       </c>
       <c r="F4">
-        <v>0.9977606559737699</v>
+        <v>0.9582560433218584</v>
       </c>
       <c r="G4">
-        <v>0.9977606559737699</v>
+        <v>0.9776543772172571</v>
       </c>
     </row>
     <row r="5">
@@ -1045,19 +1046,19 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.3135007357361415</v>
+        <v>0.3426949377405902</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1.05159133181572</v>
+        <v>1.066789937473456</v>
       </c>
       <c r="F5">
-        <v>0.8045999467664907</v>
+        <v>0.7870051312758293</v>
       </c>
       <c r="G5">
-        <v>0.9977606559737699</v>
+        <v>0.9776543772172571</v>
       </c>
     </row>
     <row r="6">
@@ -1072,19 +1073,19 @@
         </is>
       </c>
       <c r="C6">
-        <v>2.243351461284339</v>
+        <v>1.827244841532476</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>16.328519612316</v>
+        <v>17.19680970945057</v>
       </c>
       <c r="F6">
-        <v>0.03907484520063858</v>
+        <v>0.08506983293021878</v>
       </c>
       <c r="G6">
-        <v>0.2344587751985029</v>
+        <v>0.7644257839287582</v>
       </c>
     </row>
     <row r="7">
@@ -1099,19 +1100,19 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.2238281613241765</v>
+        <v>0.3848272713077692</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1.38236977589076</v>
+        <v>1.365976419755909</v>
       </c>
       <c r="F7">
-        <v>0.8514241541615722</v>
+        <v>0.7517174391515338</v>
       </c>
       <c r="G7">
-        <v>0.9977606559737699</v>
+        <v>0.9776543772172571</v>
       </c>
     </row>
     <row r="8">
@@ -1126,19 +1127,19 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.09254577014488552</v>
+        <v>0.03382073872765245</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1.191947462459511</v>
+        <v>1.231644076509574</v>
       </c>
       <c r="F8">
-        <v>0.9393297398330952</v>
+        <v>0.9776543772172571</v>
       </c>
       <c r="G8">
-        <v>0.9977606559737699</v>
+        <v>0.9776543772172571</v>
       </c>
     </row>
     <row r="9">
@@ -1153,19 +1154,19 @@
         </is>
       </c>
       <c r="C9">
-        <v>1.896750586261549</v>
+        <v>1.273264827496986</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1.748128432160794</v>
+        <v>1.639235642331296</v>
       </c>
       <c r="F9">
-        <v>0.2162453910191845</v>
+        <v>0.3539742264235008</v>
       </c>
       <c r="G9">
-        <v>0.6109354662454879</v>
+        <v>0.8853777362822417</v>
       </c>
     </row>
     <row r="10">
@@ -1180,19 +1181,19 @@
         </is>
       </c>
       <c r="C10">
-        <v>1.96023761394886</v>
+        <v>1.351802550463184</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>1.367602868362093</v>
+        <v>1.399792314785578</v>
       </c>
       <c r="F10">
-        <v>0.2443741864981952</v>
+        <v>0.3541510945128967</v>
       </c>
       <c r="G10">
-        <v>0.6109354662454879</v>
+        <v>0.8853777362822417</v>
       </c>
     </row>
     <row r="11">
@@ -1207,19 +1208,19 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.2559251173239099</v>
+        <v>0.2388882099633046</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1.817679312381789</v>
+        <v>1.912705596849554</v>
       </c>
       <c r="F11">
-        <v>0.824021421556364</v>
+        <v>0.8343335863579571</v>
       </c>
       <c r="G11">
-        <v>0.9977606559737699</v>
+        <v>0.9776543772172571</v>
       </c>
     </row>
     <row r="12">
@@ -1234,19 +1235,19 @@
         </is>
       </c>
       <c r="C12">
-        <v>1.003943938489591</v>
+        <v>0.8915232062478949</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>1.845733630878946</v>
+        <v>1.784209748033942</v>
       </c>
       <c r="F12">
-        <v>0.4285870893069813</v>
+        <v>0.4763230766920143</v>
       </c>
       <c r="G12">
-        <v>0.5357338616337266</v>
+        <v>0.570332065120611</v>
       </c>
     </row>
     <row r="13">
@@ -1261,19 +1262,19 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.6592215509673149</v>
+        <v>0.6466878702976184</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>7.746000106730708</v>
+        <v>8.945989787947109</v>
       </c>
       <c r="F13">
-        <v>0.5288595125481144</v>
+        <v>0.5340719865742932</v>
       </c>
       <c r="G13">
-        <v>0.5425170948444933</v>
+        <v>0.570332065120611</v>
       </c>
     </row>
     <row r="14">
@@ -1288,19 +1289,19 @@
         </is>
       </c>
       <c r="C14">
-        <v>4.928641246688266</v>
+        <v>4.855323843444371</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>28.57102378094131</v>
+        <v>28.41879720705413</v>
       </c>
       <c r="F14">
-        <v>3.207725695550452e-05</v>
+        <v>3.976870764333308e-05</v>
       </c>
       <c r="G14">
-        <v>0.0003207725695550452</v>
+        <v>0.0003976870764333308</v>
       </c>
     </row>
     <row r="15">
@@ -1315,19 +1316,19 @@
         </is>
       </c>
       <c r="C15">
-        <v>8.526900849871595</v>
+        <v>5.466778815403683</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>1.069020588445019</v>
+        <v>1.085278394104082</v>
       </c>
       <c r="F15">
-        <v>0.06501794684178135</v>
+        <v>0.1013292331564061</v>
       </c>
       <c r="G15">
-        <v>0.2167264894726045</v>
+        <v>0.3377641105213536</v>
       </c>
     </row>
     <row r="16">
@@ -1342,19 +1343,19 @@
         </is>
       </c>
       <c r="C16">
-        <v>1.143363750327085</v>
+        <v>1.118158819698866</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>3.893351619381273</v>
+        <v>3.396672876258658</v>
       </c>
       <c r="F16">
-        <v>0.3182830685575533</v>
+        <v>0.3362862038668719</v>
       </c>
       <c r="G16">
-        <v>0.4546900979393618</v>
+        <v>0.4804088626669598</v>
       </c>
     </row>
     <row r="17">
@@ -1369,19 +1370,19 @@
         </is>
       </c>
       <c r="C17">
-        <v>0.7775061825776881</v>
+        <v>0.7215899118447767</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1.466803984074499</v>
+        <v>1.424607765223478</v>
       </c>
       <c r="F17">
-        <v>0.5425170948444933</v>
+        <v>0.570332065120611</v>
       </c>
       <c r="G17">
-        <v>0.5425170948444933</v>
+        <v>0.570332065120611</v>
       </c>
     </row>
     <row r="18">
@@ -1396,19 +1397,19 @@
         </is>
       </c>
       <c r="C18">
-        <v>2.163046616882535</v>
+        <v>1.533937097233646</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>1.551347018994897</v>
+        <v>1.677731893202403</v>
       </c>
       <c r="F18">
-        <v>0.1986025976329346</v>
+        <v>0.2871574790881026</v>
       </c>
       <c r="G18">
-        <v>0.3310043293882243</v>
+        <v>0.4785957984801711</v>
       </c>
     </row>
     <row r="19">
@@ -1423,19 +1424,19 @@
         </is>
       </c>
       <c r="C19">
-        <v>1.836871404955974</v>
+        <v>2.045007135607972</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>5.735959853059439</v>
+        <v>6.299053179588256</v>
       </c>
       <c r="F19">
-        <v>0.1181373962187516</v>
+        <v>0.08460543806470976</v>
       </c>
       <c r="G19">
-        <v>0.2953434905468789</v>
+        <v>0.3377641105213536</v>
       </c>
     </row>
     <row r="20">
@@ -1450,19 +1451,19 @@
         </is>
       </c>
       <c r="C20">
-        <v>2.705958354663625</v>
+        <v>2.686977262348441</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>1.44253056285566</v>
+        <v>1.459364654619941</v>
       </c>
       <c r="F20">
-        <v>0.1592916592477533</v>
+        <v>0.1588864775911141</v>
       </c>
       <c r="G20">
-        <v>0.3185833184955065</v>
+        <v>0.3972161939777852</v>
       </c>
     </row>
     <row r="21">
@@ -1477,19 +1478,260 @@
         </is>
       </c>
       <c r="C21">
-        <v>23.71804149962717</v>
+        <v>2.80118479385572</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>1.000000000000002</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="F21">
-        <v>0.02682527343397598</v>
+        <v>0.218290530984795</v>
       </c>
       <c r="G21">
-        <v>0.1341263671698799</v>
+        <v>0.43658106196959</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>country_id_europe_1_usa_north_america_2_asia_3_australia_4_south_america_5</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>n_effect_sizes</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>k_studies</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>517</v>
+      </c>
+      <c r="D2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>59</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>58</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>177</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>282</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
